--- a/BackTest/2020-01-23 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-23 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>254060.737701</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>254060.737701</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>251832.367701</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>244461.715901</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>249889.0483010001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>249874.4583010001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>250163.3813010001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>225680.3813010001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>236007.3613010001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>234504.3613010001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>238586.3613010001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>232267.7613010001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>228854.2307010001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>228857.2307010001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>227862.2317010001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>205841.0619010001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>205844.0619010001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>188314.1857010001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>188317.1857010001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>182215.0457010001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>162952.936501</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>143462.454801</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>143818.771101</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>144407.9471010001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>148656.3429010001</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>148709.3309010001</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>148709.3309010001</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>148539.9309010001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>148489.9309010001</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>148495.7215010001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>148343.7533010001</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>148648.8482010001</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>138378.0569010001</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>138378.0569010001</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>135990.536901</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>136381.653901</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>136381.653901</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>136228.653901</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -4609,11 +4609,17 @@
         <v>-8964.71679899998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>193.9</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4648,17 @@
         <v>-7745.82039899998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>196.6</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4687,17 @@
         <v>-8569.31479899998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>196.7</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,15 +4726,17 @@
         <v>-8272.730298999979</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>194.6</v>
       </c>
-      <c r="J131" t="n">
-        <v>194.6</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,17 +4765,15 @@
         <v>-8272.730298999979</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>195.1</v>
       </c>
-      <c r="J132" t="n">
-        <v>194.6</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4786,17 +4804,15 @@
         <v>-8269.839598999979</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>195.1</v>
       </c>
-      <c r="J133" t="n">
-        <v>194.6</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4827,15 +4843,17 @@
         <v>-8416.456998999978</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>196.5</v>
       </c>
-      <c r="J134" t="n">
-        <v>196.5</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4864,17 +4882,15 @@
         <v>-8413.560298999979</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>195.5</v>
       </c>
-      <c r="J135" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4905,15 +4921,15 @@
         <v>-6422.783198999979</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>196.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4944,12 +4960,12 @@
         <v>-6422.783198999979</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>196.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,12 +4999,12 @@
         <v>-6417.683398999979</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>196.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,9 +5041,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,9 +5078,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5103,9 +5115,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5139,14 +5149,10 @@
         <v>-7656.849498999978</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>195.7</v>
-      </c>
-      <c r="J142" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,9 +5189,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5222,9 +5226,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,9 +5263,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5300,9 +5300,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5339,9 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5378,9 +5374,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5417,9 +5411,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,9 +5448,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5495,9 +5485,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5534,9 +5522,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5573,9 +5559,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5612,9 +5596,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5651,9 +5633,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5690,9 +5670,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5729,9 +5707,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5768,9 +5744,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5807,9 +5781,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5846,9 +5818,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5885,9 +5855,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5924,9 +5892,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,14 +5926,10 @@
         <v>-14744.35959899998</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="J163" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6001,14 +5963,10 @@
         <v>-12744.35959899998</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>198</v>
-      </c>
-      <c r="J164" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6045,9 +6003,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6081,14 +6037,10 @@
         <v>-12064.93909899998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>198</v>
-      </c>
-      <c r="J166" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,9 +6077,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6161,14 +6111,10 @@
         <v>-15905.17119899998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="J168" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,9 +6151,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,14 +6185,10 @@
         <v>-18201.24089899998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>197</v>
-      </c>
-      <c r="J170" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,14 +6222,10 @@
         <v>-17519.24089899998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>196.4</v>
-      </c>
-      <c r="J171" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6323,14 +6259,10 @@
         <v>-17519.24089899998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>197</v>
-      </c>
-      <c r="J172" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6364,14 +6296,10 @@
         <v>-18139.11209899998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>197</v>
-      </c>
-      <c r="J173" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6408,9 +6336,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6447,9 +6373,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6486,9 +6410,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6525,9 +6447,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6561,14 +6481,10 @@
         <v>-16224.31939899998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>198</v>
-      </c>
-      <c r="J178" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6602,14 +6518,10 @@
         <v>-16224.31939899998</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="J179" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6643,14 +6555,10 @@
         <v>-4638.52229899998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="J180" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6684,14 +6592,10 @@
         <v>13836.47270100002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>197</v>
-      </c>
-      <c r="J181" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6725,14 +6629,10 @@
         <v>-16927.16179899998</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>197.8</v>
-      </c>
-      <c r="J182" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6766,14 +6666,10 @@
         <v>-16927.16179899998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>197</v>
-      </c>
-      <c r="J183" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6807,14 +6703,10 @@
         <v>-13260.04189899998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>197</v>
-      </c>
-      <c r="J184" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,9 +6743,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6887,14 +6777,10 @@
         <v>-9583.78289899998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>198</v>
-      </c>
-      <c r="J186" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,14 +6814,10 @@
         <v>-7253.78289899998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>198.5</v>
-      </c>
-      <c r="J187" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,9 +6854,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,14 +6888,10 @@
         <v>23893.26430100002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>199</v>
-      </c>
-      <c r="J189" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7052,9 +6928,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7088,14 +6962,10 @@
         <v>72353.72980100002</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>199.6</v>
-      </c>
-      <c r="J191" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7132,9 +7002,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7171,9 +7039,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7210,9 +7076,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7249,9 +7113,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7288,9 +7150,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,9 +7187,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7366,9 +7224,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7405,9 +7261,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7441,14 +7295,10 @@
         <v>76188.70010100002</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>200.1</v>
-      </c>
-      <c r="J200" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7485,9 +7335,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7524,9 +7372,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7563,9 +7409,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,9 +7446,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,9 +7483,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7680,9 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7719,9 +7557,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7758,9 +7594,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,9 +7631,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,9 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7875,9 +7705,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7914,9 +7742,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7953,9 +7779,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7992,9 +7816,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8031,9 +7853,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,9 +7890,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,9 +7927,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8148,9 +7964,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8187,9 +8001,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8226,9 +8038,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8265,9 +8075,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8304,9 +8112,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8343,9 +8149,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8382,9 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8421,9 +8223,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,9 +8260,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,9 +8297,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8538,9 +8334,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8577,9 +8371,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8616,9 +8408,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8655,9 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,9 +8482,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,9 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,9 +8556,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8811,9 +8593,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8850,9 +8630,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8889,9 +8667,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,9 +8704,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8967,9 +8741,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9006,9 +8778,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9045,9 +8815,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9084,9 +8852,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,9 +8889,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9162,9 +8926,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9201,9 +8963,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,14 +8997,10 @@
         <v>49366.43558692002</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>200</v>
-      </c>
-      <c r="J246" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9278,19 +9034,17 @@
         <v>70091.89158692001</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>196.5</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.001615776081425</v>
+        <v>1</v>
       </c>
       <c r="M247" t="inlineStr"/>
     </row>
@@ -9321,7 +9075,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9354,7 +9112,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9387,7 +9149,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9420,7 +9186,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9223,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9482,11 +9256,15 @@
         <v>89257.82808692002</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9515,11 +9293,15 @@
         <v>89964.82808692002</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9548,11 +9330,15 @@
         <v>97219.86088692003</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9581,11 +9367,15 @@
         <v>108882.30158692</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +9404,15 @@
         <v>95398.54488692002</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9647,11 +9441,15 @@
         <v>101159.85878692</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9680,11 +9478,15 @@
         <v>101159.85878692</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9713,11 +9515,15 @@
         <v>101061.00878692</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9746,11 +9552,15 @@
         <v>100797.21878692</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9783,7 +9593,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9816,7 +9630,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9849,7 +9667,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9882,7 +9704,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9915,7 +9741,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9948,7 +9778,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9981,7 +9815,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10014,7 +9852,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10047,7 +9889,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10080,7 +9926,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10113,7 +9963,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10146,7 +10000,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10179,7 +10037,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10212,7 +10074,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10245,7 +10111,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10278,7 +10148,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10311,7 +10185,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10344,7 +10222,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10377,7 +10259,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10410,7 +10296,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10443,7 +10333,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10476,7 +10370,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10509,7 +10407,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10542,7 +10444,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10575,7 +10481,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10604,11 +10514,15 @@
         <v>89390.22008692002</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10637,11 +10551,15 @@
         <v>89463.67848692002</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10670,11 +10588,15 @@
         <v>74379.26608692002</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10707,7 +10629,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10740,7 +10666,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10773,7 +10703,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10806,7 +10740,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10835,11 +10773,15 @@
         <v>37986.29938692002</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10872,7 +10814,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10901,11 +10847,15 @@
         <v>37907.11188692002</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10938,7 +10888,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10971,7 +10925,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11004,7 +10962,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11037,7 +10999,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11070,7 +11036,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11103,7 +11073,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11132,15 +11106,13 @@
         <v>-15045.47661307998</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>196.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -11948,11 +11920,9 @@
         <v>-32056.73671307998</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>197.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11987,11 +11957,9 @@
         <v>-30831.14271307997</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>197.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12026,11 +11994,9 @@
         <v>-31018.66171307998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>198.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12065,11 +12031,9 @@
         <v>-34675.59101307997</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>198.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12807,11 +12771,9 @@
         <v>-10246.42521307997</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>196.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12846,11 +12808,9 @@
         <v>-10816.50721307997</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12885,11 +12845,9 @@
         <v>-10816.50721307997</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12924,11 +12882,9 @@
         <v>-9276.507213079974</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12963,11 +12919,9 @@
         <v>-9276.507213079974</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -13002,11 +12956,9 @@
         <v>-9276.507213079974</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -13041,11 +12993,9 @@
         <v>-9276.507213079974</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -13154,11 +13104,9 @@
         <v>-9271.371013079974</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
@@ -13193,7 +13141,7 @@
         <v>-7894.504213079974</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>196.9</v>
@@ -13232,11 +13180,9 @@
         <v>-8036.098613079974</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>197.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -13271,11 +13217,9 @@
         <v>-8036.098613079974</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -13310,11 +13254,9 @@
         <v>-8036.098613079974</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13349,11 +13291,9 @@
         <v>-8658.654813079975</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13388,11 +13328,9 @@
         <v>-8567.114813079974</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>195.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13427,11 +13365,9 @@
         <v>-8564.584813079973</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>197.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13466,11 +13402,9 @@
         <v>-6584.584813079973</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>197.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13505,11 +13439,9 @@
         <v>-1084.584813079973</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13544,11 +13476,9 @@
         <v>-1138.171913079973</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>198.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13953,11 +13883,9 @@
         <v>-3958.140513079973</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13992,11 +13920,9 @@
         <v>-3955.140513079973</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -14031,11 +13957,9 @@
         <v>-4660.333613079973</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -14070,11 +13994,9 @@
         <v>-119.3516130799726</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -14109,11 +14031,9 @@
         <v>-119.3516130799726</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -14148,11 +14068,9 @@
         <v>-119.3516130799726</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -14187,11 +14105,9 @@
         <v>-1601.626613079973</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -14263,11 +14179,9 @@
         <v>4460.892286920027</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -14302,11 +14216,9 @@
         <v>4460.892286920027</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -14341,11 +14253,9 @@
         <v>2608.667786920027</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -14380,11 +14290,9 @@
         <v>2682.822386920026</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -14419,11 +14327,9 @@
         <v>3116.941286920026</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -14754,16 +14660,18 @@
         <v>13836.70268692003</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L399" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
       <c r="M399" t="inlineStr"/>
     </row>
     <row r="400">
@@ -14789,11 +14697,15 @@
         <v>13782.96668692002</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14822,11 +14734,15 @@
         <v>13782.96668692002</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14859,7 +14775,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14888,11 +14808,15 @@
         <v>13734.20538692002</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14921,11 +14845,15 @@
         <v>13694.28828692002</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14954,11 +14882,15 @@
         <v>13789.23928692002</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14987,15 +14919,13 @@
         <v>10010.12208692002</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L406" t="n">
@@ -15026,11 +14956,9 @@
         <v>6226.189786920022</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>198.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -15065,11 +14993,9 @@
         <v>9088.284086920023</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -15104,11 +15030,9 @@
         <v>15978.57478692002</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>197.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -15143,11 +15067,9 @@
         <v>15701.64438692002</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>198.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -15182,11 +15104,9 @@
         <v>15704.16968692002</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>196.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -15221,11 +15141,9 @@
         <v>15704.16968692002</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -15260,11 +15178,9 @@
         <v>15704.16968692002</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -15277,6 +15193,6 @@
       <c r="M413" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-23 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>244461.715901</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>249889.0483010001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>254789.1049010001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>227862.2317010001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>205841.0619010001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>205844.0619010001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>193625.7183010001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>188314.1857010001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>188317.1857010001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>182215.0457010001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>162952.936501</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>143462.454801</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>143818.771101</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>144407.9471010001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>148656.3429010001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>148709.3309010001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>148709.3309010001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>148539.9309010001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>148489.9309010001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>148495.7215010001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>148343.7533010001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>148648.8482010001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>138378.0569010001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -4609,17 +4609,11 @@
         <v>-8964.71679899998</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>193.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4648,17 +4642,11 @@
         <v>-7745.82039899998</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>196.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4687,17 +4675,11 @@
         <v>-8569.31479899998</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>196.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4726,17 +4708,11 @@
         <v>-8272.730298999979</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>194.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4765,17 +4741,11 @@
         <v>-8272.730298999979</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>195.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4804,17 +4774,11 @@
         <v>-8269.839598999979</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>195.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4843,17 +4807,11 @@
         <v>-8416.456998999978</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>196.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4882,17 +4840,11 @@
         <v>-8413.560298999979</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>195.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4921,17 +4873,11 @@
         <v>-6422.783198999979</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>196.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4960,17 +4906,11 @@
         <v>-6422.783198999979</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>196.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4999,17 +4939,11 @@
         <v>-6417.683398999979</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>196.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5042,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5079,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5116,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5153,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5190,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5227,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5301,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5338,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5375,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5412,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5449,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5486,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5523,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5560,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5597,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5634,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5671,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5708,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5745,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5782,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5819,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5893,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5930,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5967,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6004,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6041,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6078,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6115,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6152,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6189,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6263,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6300,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6337,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6411,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6444,15 +6226,15 @@
         <v>-14056.51209899998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>197</v>
+      </c>
+      <c r="J177" t="n">
+        <v>197</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6484,10 +6266,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>197</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6518,10 +6302,14 @@
         <v>-16224.31939899998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="J179" t="n">
+        <v>197</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,10 +6343,14 @@
         <v>-4638.52229899998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="J180" t="n">
+        <v>197</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6595,7 +6387,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>197</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6632,7 +6426,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>197</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,7 +6465,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>197</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6703,10 +6501,14 @@
         <v>-13260.04189899998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>197</v>
+      </c>
+      <c r="J184" t="n">
+        <v>197</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6743,7 +6545,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>197</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6780,7 +6584,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>197</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6817,7 +6623,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>197</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6854,7 +6662,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>197</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6891,7 +6701,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>197</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,7 +6740,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>197</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6965,7 +6779,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>197</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,7 +6818,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>197</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,7 +6857,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>197</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7076,7 +6896,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>197</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7113,7 +6935,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>197</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7150,7 +6974,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>197</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7187,7 +7013,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>197</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7224,7 +7052,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>197</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7261,7 +7091,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>197</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7298,7 +7130,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>197</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7335,7 +7169,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>197</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,7 +7208,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>197</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7409,7 +7247,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>197</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7446,7 +7286,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>197</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7483,7 +7325,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>197</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,7 +7364,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>197</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7557,7 +7403,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>197</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7594,7 +7442,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>197</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7631,7 +7481,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>197</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,7 +7520,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>197</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7705,7 +7559,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>197</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7742,7 +7598,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>197</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7779,7 +7637,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>197</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,7 +7676,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>197</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,7 +7715,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>197</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7890,7 +7754,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>197</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7927,7 +7793,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>197</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7964,7 +7832,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>197</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8001,7 +7871,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>197</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,7 +7910,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>197</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8075,7 +7949,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>197</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8112,7 +7988,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>197</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8149,7 +8027,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>197</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8186,7 +8066,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>197</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8223,7 +8105,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>197</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8260,7 +8144,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>197</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,7 +8183,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>197</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8334,7 +8222,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>197</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8371,7 +8261,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>197</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8408,7 +8300,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>197</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8445,7 +8339,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>197</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8482,7 +8378,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>197</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8519,7 +8417,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>197</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8556,7 +8456,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>197</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8593,7 +8495,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>197</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8630,7 +8534,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>197</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8667,7 +8573,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>197</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,7 +8612,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>197</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8741,7 +8651,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>197</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8778,7 +8690,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>197</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8815,7 +8729,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>197</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8852,7 +8768,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>197</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8889,7 +8807,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>197</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8926,7 +8846,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>197</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8963,7 +8885,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>197</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,7 +8924,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>197</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9037,7 +8963,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>197</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9074,7 +9002,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>197</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9111,7 +9041,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>197</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9148,7 +9080,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>197</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9185,7 +9119,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>197</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9222,7 +9158,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>197</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9259,7 +9197,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>197</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9296,7 +9236,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>197</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9333,7 +9275,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>197</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9370,7 +9314,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>197</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9407,7 +9353,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>197</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9444,7 +9392,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>197</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9481,7 +9431,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>197</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9518,7 +9470,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>197</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9555,7 +9509,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>197</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9592,7 +9548,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>197</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9629,7 +9587,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>197</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9666,7 +9626,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>197</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9703,7 +9665,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>197</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9740,7 +9704,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>197</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9777,7 +9743,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>197</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9814,7 +9782,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>197</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9851,7 +9821,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>197</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9888,7 +9860,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>197</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9925,7 +9899,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>197</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9962,7 +9938,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>197</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9999,7 +9977,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>197</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10036,7 +10016,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>197</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10073,7 +10055,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>197</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10110,7 +10094,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>197</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10147,7 +10133,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>197</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10184,7 +10172,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>197</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10221,7 +10211,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>197</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10258,7 +10250,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>197</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10295,7 +10289,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>197</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10332,7 +10328,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>197</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10369,7 +10367,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>197</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10406,7 +10406,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>197</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10443,7 +10445,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>197</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10480,7 +10484,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>197</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10517,7 +10523,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>197</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10554,7 +10562,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>197</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10591,7 +10601,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>197</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10628,7 +10640,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>197</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10665,7 +10679,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>197</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10702,7 +10718,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>197</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10739,7 +10757,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>197</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10776,7 +10796,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>197</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10813,7 +10835,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>197</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10850,7 +10874,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>197</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10887,7 +10913,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>197</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,7 +10952,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>197</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10961,7 +10991,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>197</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10998,7 +11030,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>197</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11035,7 +11069,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>197</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11072,7 +11108,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>197</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11109,7 +11147,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>197</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11146,7 +11186,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>197</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11183,7 +11225,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>197</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11220,7 +11264,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>197</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11257,7 +11303,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>197</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11294,7 +11342,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>197</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11331,7 +11381,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>197</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11368,7 +11420,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>197</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11405,7 +11459,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>197</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11442,7 +11498,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>197</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11479,7 +11537,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>197</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11516,7 +11576,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>197</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11553,7 +11615,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>197</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11590,7 +11654,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>197</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11627,7 +11693,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>197</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,7 +11732,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>197</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11701,7 +11771,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>197</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11738,7 +11810,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>197</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11775,7 +11849,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>197</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11812,7 +11888,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>197</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11849,7 +11927,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>197</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11886,7 +11966,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>197</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11923,7 +12005,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>197</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11960,7 +12044,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>197</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11997,7 +12083,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>197</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12034,7 +12122,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>197</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12071,7 +12161,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>197</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12108,7 +12200,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>197</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12145,7 +12239,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>197</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12182,7 +12278,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>197</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12219,7 +12317,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>197</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12256,7 +12356,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>197</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12293,7 +12395,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>197</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12330,7 +12434,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>197</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12367,7 +12473,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>197</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12404,7 +12512,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>197</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12441,7 +12551,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>197</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12478,7 +12590,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>197</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12515,7 +12629,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>197</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12552,7 +12668,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>197</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12589,7 +12707,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>197</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12626,7 +12746,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>197</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12663,7 +12785,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>197</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12700,7 +12824,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>197</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12737,7 +12863,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>197</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12774,7 +12902,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>197</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12811,7 +12941,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>197</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12848,7 +12980,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>197</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12885,7 +13019,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>197</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12922,7 +13058,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>197</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12959,7 +13097,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>197</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12996,7 +13136,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>197</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13033,7 +13175,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>197</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13070,7 +13214,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>197</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13104,10 +13250,14 @@
         <v>-9271.371013079974</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="J357" t="n">
+        <v>197</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,7 +13296,9 @@
       <c r="I358" t="n">
         <v>196.9</v>
       </c>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>197</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13180,10 +13332,14 @@
         <v>-8036.098613079974</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>197.8</v>
+      </c>
+      <c r="J359" t="n">
+        <v>197</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13217,10 +13373,14 @@
         <v>-8036.098613079974</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>197</v>
+      </c>
+      <c r="J360" t="n">
+        <v>197</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13254,10 +13414,14 @@
         <v>-8036.098613079974</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>197</v>
+      </c>
+      <c r="J361" t="n">
+        <v>197</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13291,10 +13455,14 @@
         <v>-8658.654813079975</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>197</v>
+      </c>
+      <c r="J362" t="n">
+        <v>197</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13328,10 +13496,14 @@
         <v>-8567.114813079974</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="J363" t="n">
+        <v>197</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13365,10 +13537,14 @@
         <v>-8564.584813079973</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="J364" t="n">
+        <v>197</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13402,10 +13578,14 @@
         <v>-6584.584813079973</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>197.9</v>
+      </c>
+      <c r="J365" t="n">
+        <v>197</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13439,10 +13619,14 @@
         <v>-1084.584813079973</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>198</v>
+      </c>
+      <c r="J366" t="n">
+        <v>197</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13479,7 +13663,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>197</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13516,7 +13702,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>197</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13553,7 +13741,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>197</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13590,7 +13780,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>197</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13627,7 +13819,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>197</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13664,7 +13858,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>197</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13701,7 +13897,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>197</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13738,7 +13936,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>197</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13775,7 +13975,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>197</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13812,7 +14014,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>197</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13849,7 +14053,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>197</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13886,7 +14092,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>197</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13923,7 +14131,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>197</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13960,7 +14170,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>197</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13994,10 +14206,14 @@
         <v>-119.3516130799726</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="J381" t="n">
+        <v>197</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,7 +14250,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>197</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14071,7 +14289,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>197</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14108,7 +14328,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>197</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14142,10 +14364,14 @@
         <v>4460.892286920027</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="J385" t="n">
+        <v>197</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14182,7 +14408,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>197</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14219,7 +14447,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>197</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14256,7 +14486,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>197</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14293,7 +14525,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>197</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14330,7 +14564,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>197</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14367,7 +14603,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>197</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14404,7 +14642,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>197</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14441,7 +14681,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>197</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14478,7 +14720,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>197</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14515,7 +14759,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>197</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14552,7 +14798,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>197</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14589,7 +14837,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>197</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14626,7 +14876,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>197</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14663,7 +14915,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>197</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14700,7 +14954,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>197</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14737,7 +14993,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>197</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14774,7 +15032,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>197</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14811,7 +15071,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>197</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14848,7 +15110,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>197</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14885,7 +15149,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>197</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14922,7 +15188,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>197</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14959,7 +15227,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>197</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14996,7 +15266,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>197</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15033,7 +15305,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>197</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15070,7 +15344,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>197</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15107,7 +15383,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>197</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15144,7 +15422,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>197</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15181,7 +15461,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>197</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15193,6 +15475,6 @@
       <c r="M413" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-23 BackTest STEEM.xlsx
@@ -451,7 +451,7 @@
         <v>254060.737701</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>254060.737701</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>251832.367701</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>251835.367701</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>251649.987701</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>244461.715901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>249889.0483010001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>249880.0083010001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>236007.3613010001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>234504.3613010001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>228854.2307010001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>228857.2307010001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -5995,11 +5995,17 @@
         <v>-18201.24089899998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>197</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6034,17 @@
         <v>-17519.24089899998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>196.4</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6073,17 @@
         <v>-17519.24089899998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>197</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6116,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6153,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6190,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6227,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,15 +6260,15 @@
         <v>-14056.51209899998</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>197</v>
-      </c>
-      <c r="J177" t="n">
-        <v>197</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,15 +6297,15 @@
         <v>-16224.31939899998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>197</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>198</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6307,9 +6341,7 @@
       <c r="I179" t="n">
         <v>194.7</v>
       </c>
-      <c r="J179" t="n">
-        <v>197</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,9 +6380,7 @@
       <c r="I180" t="n">
         <v>194.7</v>
       </c>
-      <c r="J180" t="n">
-        <v>197</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6384,12 +6414,12 @@
         <v>13836.47270100002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
         <v>197</v>
       </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6426,9 +6456,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>197</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,9 +6493,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>197</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6506,9 +6532,7 @@
       <c r="I184" t="n">
         <v>197</v>
       </c>
-      <c r="J184" t="n">
-        <v>197</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6545,9 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>197</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6584,9 +6606,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>197</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6623,9 +6643,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>197</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6662,9 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>197</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6701,9 +6717,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>197</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6740,9 +6754,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>197</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6779,9 +6791,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>197</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6818,9 +6828,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>197</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6857,9 +6865,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>197</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6896,9 +6902,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>197</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6935,9 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>197</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6974,9 +6976,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>197</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7013,9 +7013,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>197</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7052,9 +7050,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>197</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7091,9 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>197</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7130,9 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>197</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7169,9 +7161,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>197</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7208,9 +7198,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>197</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7247,9 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>197</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,9 +7272,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>197</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7325,9 +7309,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>197</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,9 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>197</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7403,9 +7383,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>197</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7442,9 +7420,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>197</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7481,9 +7457,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>197</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,9 +7494,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>197</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7559,9 +7531,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>197</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7598,9 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>197</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,9 +7605,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>197</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7676,9 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>197</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7715,9 +7679,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>197</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7754,9 +7716,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>197</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7793,9 +7753,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>197</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7832,9 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>197</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7871,9 +7827,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>197</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7910,9 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>197</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7949,9 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>197</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7988,9 +7938,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>197</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8027,9 +7975,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>197</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8066,9 +8012,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>197</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8105,9 +8049,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>197</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8144,9 +8086,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>197</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,9 +8123,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>197</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8222,9 +8160,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>197</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8261,9 +8197,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>197</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8300,9 +8234,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>197</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8339,9 +8271,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>197</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8378,9 +8308,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>197</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8417,9 +8345,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>197</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8456,9 +8382,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>197</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8495,9 +8419,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>197</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8534,9 +8456,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>197</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8573,9 +8493,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>197</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8612,9 +8530,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>197</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8651,9 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>197</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8690,9 +8604,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>197</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8729,9 +8641,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>197</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8768,9 +8678,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>197</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8807,9 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>197</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8846,9 +8752,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>197</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8885,9 +8789,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>197</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8924,9 +8826,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>197</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8963,9 +8863,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>197</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9002,9 +8900,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>197</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9041,9 +8937,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>197</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9080,9 +8974,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>197</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9119,9 +9011,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>197</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9158,9 +9048,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>197</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9197,9 +9085,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>197</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9236,9 +9122,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>197</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9275,9 +9159,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>197</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9314,9 +9196,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>197</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9353,9 +9233,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>197</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9392,9 +9270,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>197</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9431,9 +9307,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>197</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9470,9 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>197</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9509,9 +9381,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>197</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9548,9 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>197</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9587,9 +9455,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>197</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9626,9 +9492,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>197</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9665,9 +9529,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>197</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9704,9 +9566,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>197</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9743,9 +9603,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>197</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9782,9 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>197</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9821,9 +9677,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>197</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9860,9 +9714,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>197</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9899,9 +9751,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>197</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9938,9 +9788,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>197</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9977,9 +9825,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>197</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10016,9 +9862,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>197</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10055,9 +9899,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>197</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10094,9 +9936,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>197</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10133,9 +9973,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>197</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10172,9 +10010,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>197</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10211,9 +10047,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>197</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10250,9 +10084,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>197</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10289,9 +10121,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>197</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10328,9 +10158,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>197</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10367,9 +10195,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>197</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10406,9 +10232,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>197</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10445,9 +10269,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>197</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10484,9 +10306,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>197</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10523,9 +10343,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>197</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10562,9 +10380,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>197</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10601,9 +10417,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>197</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10640,9 +10454,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>197</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10679,9 +10491,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>197</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10718,9 +10528,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>197</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10757,9 +10565,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>197</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10796,9 +10602,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>197</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10835,9 +10639,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>197</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,9 +10676,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>197</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10913,9 +10713,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>197</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10952,9 +10750,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>197</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10991,9 +10787,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>197</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11030,9 +10824,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>197</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11069,9 +10861,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>197</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11108,9 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>197</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11147,9 +10935,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>197</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11186,9 +10972,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>197</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11225,9 +11009,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>197</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11264,9 +11046,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>197</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11303,9 +11083,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>197</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11342,9 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>197</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11381,9 +11157,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>197</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11420,9 +11194,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>197</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11459,9 +11231,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>197</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11498,9 +11268,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>197</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11537,9 +11305,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>197</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11576,9 +11342,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>197</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11615,9 +11379,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>197</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11654,9 +11416,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>197</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11693,9 +11453,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>197</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,9 +11490,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>197</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11771,9 +11527,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>197</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11810,9 +11564,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>197</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11849,9 +11601,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>197</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11888,9 +11638,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>197</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,9 +11675,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>197</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11966,9 +11712,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>197</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12005,9 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>197</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12044,9 +11786,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>197</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12083,9 +11823,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>197</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12122,9 +11860,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>197</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12161,9 +11897,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>197</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12200,9 +11934,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>197</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12239,9 +11971,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>197</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12278,9 +12008,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>197</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12317,9 +12045,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>197</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12356,9 +12082,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>197</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12395,9 +12119,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>197</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12434,9 +12156,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>197</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12473,9 +12193,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>197</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12512,9 +12230,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>197</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12551,9 +12267,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>197</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12590,9 +12304,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>197</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12629,9 +12341,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>197</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12668,9 +12378,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>197</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12707,9 +12415,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>197</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12746,9 +12452,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>197</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12785,9 +12489,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>197</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12824,9 +12526,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>197</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12863,9 +12563,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>197</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12902,9 +12600,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>197</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12941,9 +12637,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>197</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,12 +12671,12 @@
         <v>-10816.50721307997</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
         <v>197</v>
       </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13019,9 +12713,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>197</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13058,9 +12750,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>197</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13094,12 +12784,12 @@
         <v>-9276.507213079974</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>197</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>198</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13136,9 +12826,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>197</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13175,9 +12863,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>197</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13214,9 +12900,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>197</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13250,14 +12934,10 @@
         <v>-9271.371013079974</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>196.5</v>
-      </c>
-      <c r="J357" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13296,9 +12976,7 @@
       <c r="I358" t="n">
         <v>196.9</v>
       </c>
-      <c r="J358" t="n">
-        <v>197</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13337,9 +13015,7 @@
       <c r="I359" t="n">
         <v>197.8</v>
       </c>
-      <c r="J359" t="n">
-        <v>197</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13378,9 +13054,7 @@
       <c r="I360" t="n">
         <v>197</v>
       </c>
-      <c r="J360" t="n">
-        <v>197</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13419,9 +13093,7 @@
       <c r="I361" t="n">
         <v>197</v>
       </c>
-      <c r="J361" t="n">
-        <v>197</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13460,9 +13132,7 @@
       <c r="I362" t="n">
         <v>197</v>
       </c>
-      <c r="J362" t="n">
-        <v>197</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13501,9 +13171,7 @@
       <c r="I363" t="n">
         <v>195.4</v>
       </c>
-      <c r="J363" t="n">
-        <v>197</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13542,9 +13210,7 @@
       <c r="I364" t="n">
         <v>197.4</v>
       </c>
-      <c r="J364" t="n">
-        <v>197</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13578,14 +13244,10 @@
         <v>-6584.584813079973</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>197.9</v>
-      </c>
-      <c r="J365" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13619,14 +13281,10 @@
         <v>-1084.584813079973</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>198</v>
-      </c>
-      <c r="J366" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13663,9 +13321,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>197</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13699,12 +13355,12 @@
         <v>-1087.124813079973</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
         <v>197</v>
       </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13738,12 +13394,12 @@
         <v>-1084.610813079973</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>197</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>198</v>
+      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13780,9 +13436,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>197</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13819,9 +13473,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>197</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13858,9 +13510,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>197</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13897,9 +13547,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>197</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13936,9 +13584,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>197</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13975,9 +13621,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>197</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14014,9 +13658,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>197</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14053,9 +13695,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>197</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14092,9 +13732,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>197</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14128,12 +13766,12 @@
         <v>-3955.140513079973</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
         <v>197</v>
       </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14170,9 +13808,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>197</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14211,9 +13847,7 @@
       <c r="I381" t="n">
         <v>196.5</v>
       </c>
-      <c r="J381" t="n">
-        <v>197</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14250,9 +13884,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>197</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14289,9 +13921,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>197</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14328,9 +13958,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>197</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14364,14 +13992,10 @@
         <v>4460.892286920027</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>197.3</v>
-      </c>
-      <c r="J385" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14408,9 +14032,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>197</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14447,9 +14069,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>197</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14486,9 +14106,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>197</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14525,9 +14143,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>197</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14564,9 +14180,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>197</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14603,9 +14217,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>197</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14642,9 +14254,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>197</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14681,9 +14291,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>197</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14720,9 +14328,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>197</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14759,9 +14365,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>197</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14798,9 +14402,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>197</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14837,9 +14439,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>197</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14876,9 +14476,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>197</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14915,9 +14513,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>197</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14954,9 +14550,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>197</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14993,9 +14587,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>197</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,9 +14624,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>197</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15071,9 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>197</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15110,9 +14698,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>197</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15149,9 +14735,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>197</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15188,9 +14772,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>197</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15227,9 +14809,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>197</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15266,9 +14846,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>197</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15305,9 +14883,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>197</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15344,9 +14920,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>197</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15383,9 +14957,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>197</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15422,9 +14994,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>197</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,9 +15031,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>197</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
